--- a/worldcities_cost_of_living.xlsx
+++ b/worldcities_cost_of_living.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\JupyterWork\CMSE830_FDS\Project_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C82128-6F99-4F23-A39B-54F900DDE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA0987-71FA-474F-9238-18C510715C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8750" yWindow="1770" windowWidth="16850" windowHeight="13630" xr2:uid="{CFC6C9FC-7D47-4E50-850B-5563713B87BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{CFC6C9FC-7D47-4E50-850B-5563713B87BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="307">
   <si>
     <t>City</t>
   </si>
@@ -802,18 +791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Domestic Beer (0.5 liter draught)</t>
-  </si>
-  <si>
-    <t>Imported Beer (0.33 liter bottle)</t>
-  </si>
-  <si>
-    <t>Coke/Pepsi (0.33 liter bottle)</t>
-  </si>
-  <si>
-    <t>Water (0.33 liter bottle)</t>
-  </si>
-  <si>
     <t>Milk (regular), (1 liter)</t>
   </si>
   <si>
@@ -826,13 +803,7 @@
     <t>Local Cheese (1kg)</t>
   </si>
   <si>
-    <t>Water (1.5 liter bottle)</t>
-  </si>
-  <si>
     <t>Bottle of Wine (Mid-Range)</t>
-  </si>
-  <si>
-    <t>Domestic Beer (0.5 liter bottle)</t>
   </si>
   <si>
     <t>Cigarettes 20 Pack (Marlboro)</t>
@@ -885,9 +856,6 @@
   </si>
   <si>
     <t>1 Pair of Jeans (Levis 501 Or Similar)</t>
-  </si>
-  <si>
-    <t>1 Summer Dress in a Chain Store (Zara, H&amp;M, ...)</t>
   </si>
   <si>
     <t>1 Pair of Nike Running Shoes (Mid-Range)</t>
@@ -947,9 +915,6 @@
     <t>Beef Round (1kg) (or Equivalent Back Leg Red Meat)</t>
   </si>
   <si>
-    <t>Toyota Corolla 1.6l 97kW Comfort (Or Equivalent New Car)</t>
-  </si>
-  <si>
     <t>Preschool (or Kindergarten), Full Day, Private, Monthly for 1 Child</t>
   </si>
   <si>
@@ -961,6 +926,42 @@
   </si>
   <si>
     <t>Longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domestic Beer (500ml draught)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imported Beer (330ml bottle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coke/Pepsi (330ml bottle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water (330ml bottle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water (1500ml bottle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domestic Beer (500ml bottle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toyota Corolla Comfort (Or Equivalent New Car)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Summer Dress in a Chain Store (Zara, H&amp;M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imported Beer (500ml bottle)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,7 +1338,7 @@
   <dimension ref="A1:BH161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1353,10 +1354,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
         <v>250</v>
@@ -1368,160 +1369,160 @@
         <v>252</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" t="s">
         <v>256</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U1" t="s">
         <v>258</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>259</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" t="s">
         <v>261</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>264</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>265</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>266</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>267</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>268</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>271</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>272</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>273</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>274</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM1" t="s">
         <v>275</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>276</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>277</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>279</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>280</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AS1" t="s">
         <v>281</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AT1" t="s">
         <v>282</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
         <v>283</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AV1" t="s">
         <v>284</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AW1" t="s">
         <v>285</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AX1" t="s">
         <v>286</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AY1" t="s">
         <v>287</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AZ1" t="s">
         <v>288</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BA1" t="s">
         <v>289</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BB1" t="s">
         <v>290</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BC1" t="s">
         <v>291</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BD1" t="s">
         <v>292</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BE1" t="s">
         <v>293</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG1" t="s">
         <v>294</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BH1" t="s">
         <v>295</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>299</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.45">

--- a/worldcities_cost_of_living.xlsx
+++ b/worldcities_cost_of_living.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\JupyterWork\CMSE830_FDS\Project_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA0987-71FA-474F-9238-18C510715C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7469AC-6292-4381-B60A-4D64A30BC22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{CFC6C9FC-7D47-4E50-850B-5563713B87BC}"/>
   </bookViews>
@@ -840,9 +840,6 @@
     <t>Basic (Electricity, Heating, Cooling, Water, Garbage) for 85m2 Apartment</t>
   </si>
   <si>
-    <t>1 min. of Prepaid Mobile Tariff Local (No Discounts or Plans)</t>
-  </si>
-  <si>
     <t>Internet (60 Mbps or More, Unlimited Data, Cable/ADSL)</t>
   </si>
   <si>
@@ -962,6 +959,10 @@
   </si>
   <si>
     <t>Imported Beer (500ml bottle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 min of Prepaid Mobile Tariff Local (No Discounts or Plans)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B6D5D9-1D57-494F-96D4-8F4EA2EA71DA}">
   <dimension ref="A1:BH161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1354,10 +1355,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
         <v>296</v>
-      </c>
-      <c r="E1" t="s">
-        <v>297</v>
       </c>
       <c r="F1" t="s">
         <v>250</v>
@@ -1369,16 +1370,16 @@
         <v>252</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="M1" t="s">
         <v>253</v>
@@ -1393,16 +1394,16 @@
         <v>256</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U1" t="s">
         <v>258</v>
@@ -1438,91 +1439,91 @@
         <v>268</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG1" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>270</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>271</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>272</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>273</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM1" t="s">
         <v>274</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>275</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>276</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>277</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>278</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>279</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>280</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>281</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>282</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>283</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>284</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>285</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>286</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>287</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>288</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>289</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>290</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>291</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>292</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG1" t="s">
         <v>293</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>294</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.45">
